--- a/notebooks_imdb/test_cases_imdb_rotulated/test_cases_imdb_rotulated_with_NO/summary.xlsx
+++ b/notebooks_imdb/test_cases_imdb_rotulated/test_cases_imdb_rotulated_with_NO/summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7739,7 +7739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7765,55 +7765,85 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>passando(%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>falhando</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>falhando(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FN(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FP(%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VN(%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>VP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>VP(%)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>FN_LE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>FP_NO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FP_LE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FP_TE</t>
         </is>
@@ -7831,37 +7861,67 @@
       <c r="C2" t="n">
         <v>397</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>211</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>247</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>137</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>150</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>74</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>13</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>57</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>177</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>22</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>35</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>80</v>
       </c>
     </row>
@@ -7877,37 +7937,67 @@
       <c r="C3" t="n">
         <v>397</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>259</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>266</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>187</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>131</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>72</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>60.5</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>79</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Q3" t="n">
         <v>154</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>36</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>53</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>98</v>
       </c>
     </row>
@@ -7923,37 +8013,67 @@
       <c r="C4" t="n">
         <v>92</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>66</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>16</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>81.4</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>20</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7969,37 +8089,67 @@
       <c r="C5" t="n">
         <v>81</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>67</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>15</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>11</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8015,37 +8165,67 @@
       <c r="C6" t="n">
         <v>194</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>49</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>89</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>28</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>105</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>21</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>17</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>72</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>18</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -8061,37 +8241,67 @@
       <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>23</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>26</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>18</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>15</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>14</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>12</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>12</v>
       </c>
     </row>

--- a/notebooks_imdb/test_cases_imdb_rotulated/test_cases_imdb_rotulated_with_NO/summary.xlsx
+++ b/notebooks_imdb/test_cases_imdb_rotulated/test_cases_imdb_rotulated_with_NO/summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,16 +527,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -564,31 +564,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -610,31 +610,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -748,16 +748,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -932,31 +932,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1024,31 +1024,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1165,28 +1165,28 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1346,22 +1346,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1530,31 +1530,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="n">
-        <v>7</v>
-      </c>
       <c r="H24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1898,31 +1898,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1990,32 +1990,32 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
         <v>5</v>
       </c>
       <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
         <v>10</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>13</v>
-      </c>
       <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>4</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2127,16 +2127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2173,40 +2173,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2219,32 +2219,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2265,31 +2265,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2311,32 +2311,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2357,22 +2357,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2403,25 +2403,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2495,19 +2495,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -2556,10 +2556,10 @@
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2725,19 +2725,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2817,19 +2817,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3047,16 +3047,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -3139,19 +3139,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3185,22 +3185,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3323,19 +3323,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -3369,32 +3369,32 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3645,16 +3645,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3736,925 +3736,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>template_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amostras</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>passando</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>falhando</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VN</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>FN_NO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>FN_LE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>FN_NO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>FP_NO</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FP_LE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>FP_TE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>template1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>template2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>template3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>template4</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>template5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>template6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>template7</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>template8</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>template9</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>template10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>template11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>template12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>template13</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>template14</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>template15</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>template16</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>template17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>template18</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4747,16 +3828,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4774,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4793,25 +3874,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4826,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4839,10 +3920,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4854,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4885,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4900,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -4931,13 +4012,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4946,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4977,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4992,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5023,13 +4104,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -5038,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5069,13 +4150,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5084,10 +4165,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5115,16 +4196,889 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>13</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>template10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>template11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>template12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>template13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>template14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>template15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>template16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>template17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>template_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>amostras</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>passando</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>falhando</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VN</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FN_NO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FN_LE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>FN_NO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>FP_NO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>FP_LE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>FP_TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>template1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>template2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>template3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>template4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>template5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>template6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>template7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>template8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>template9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5139,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5161,35 +5115,35 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -5197,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -5207,25 +5161,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5234,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -5243,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5253,13 +5207,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5268,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5299,13 +5253,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5314,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5345,11 +5299,11 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
@@ -5360,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -5391,13 +5345,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5406,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5437,22 +5391,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5464,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -5473,53 +5427,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>template17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5620,16 +5528,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5647,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -5666,16 +5574,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5693,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -5712,25 +5620,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5745,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5804,25 +5712,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5837,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -5850,22 +5758,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5874,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -5896,19 +5804,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
-        <v>18</v>
-      </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5923,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -5932,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -5942,13 +5850,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5960,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6034,10 +5942,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -6049,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -6080,19 +5988,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6107,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6116,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -6126,10 +6034,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6141,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6172,31 +6080,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -6218,13 +6126,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6233,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6264,13 +6172,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6282,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6310,10 +6218,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -6325,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -6356,19 +6264,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -6392,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -6402,22 +6310,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -6426,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -6448,19 +6356,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -6475,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -6484,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -6494,31 +6402,31 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>21</v>
       </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>19</v>
-      </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -6540,31 +6448,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
+        <v>39</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>11</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10</v>
-      </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -6586,16 +6494,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6604,13 +6512,13 @@
         <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6632,11 +6540,11 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
@@ -6647,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -6678,10 +6586,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -6693,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -6724,19 +6632,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -6760,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -6770,16 +6678,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6797,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -6907,19 +6815,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6937,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6953,19 +6861,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6974,22 +6882,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6999,16 +6907,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -7017,22 +6925,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -7045,19 +6953,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7072,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -7081,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7091,19 +6999,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7112,22 +7020,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7137,19 +7045,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7164,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -7173,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -7183,19 +7091,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7210,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -7219,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -7238,19 +7146,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -7287,13 +7195,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7305,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7321,16 +7229,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -7348,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7367,22 +7275,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -7391,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -7413,16 +7321,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7434,13 +7342,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7459,22 +7367,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -7483,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -7505,31 +7413,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -7551,31 +7459,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -7584,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -7597,31 +7505,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -7643,28 +7551,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -7701,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7719,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -7856,73 +7764,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="C2" t="n">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -7932,73 +7840,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>656</v>
+        <v>488</v>
       </c>
       <c r="C3" t="n">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P3" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="R3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T3" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -8008,73 +7916,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>81.4</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8084,73 +7992,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="K5" t="n">
+        <v>154</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>67</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>80.2</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>15</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>80.2</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8160,73 +8068,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="C6" t="n">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>27.6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>79.8</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -8236,73 +8144,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="I7" t="n">
+        <v>91</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>35.3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>37</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>14</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>39</v>
+      </c>
+      <c r="S7" t="n">
         <v>18</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>64.1</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>64.1</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>64.1</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>12</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
